--- a/demo/接口示例.xlsx
+++ b/demo/接口示例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27300" windowHeight="12875"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="debug_case" sheetId="2" r:id="rId1"/>
@@ -15,42 +15,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+  <si>
+    <t>ID</t>
+  </si>
   <si>
     <t>是否执行</t>
   </si>
   <si>
-    <t>版本</t>
-  </si>
-  <si>
-    <t>行为模块</t>
-  </si>
-  <si>
-    <t>操作</t>
-  </si>
-  <si>
-    <t>接口功能</t>
-  </si>
-  <si>
-    <t>域名</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>全局变量值(值全路径)</t>
-  </si>
-  <si>
-    <t>预置数据</t>
-  </si>
-  <si>
-    <t>Request_data</t>
+    <t>接口描述</t>
+  </si>
+  <si>
+    <t>case_URL</t>
+  </si>
+  <si>
+    <t>case_Method</t>
+  </si>
+  <si>
+    <t>case_Header</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>case_全局变量值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>值全路径</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>case_预置数据</t>
+  </si>
+  <si>
+    <t>case_Request_data</t>
   </si>
   <si>
     <t>预期结果(有全局变量值，则不需要预期结果)</t>
@@ -65,19 +87,16 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>07-0001</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>获取验证码</t>
-  </si>
-  <si>
-    <t>https://trest.yishengyue.cn</t>
-  </si>
-  <si>
-    <t>/api/v1/verifycode/getVerifyCode</t>
+    <t>注册-获取验证码</t>
+  </si>
+  <si>
+    <t>https://trest.yishengyue.cn/api/v1/verifycode/getVerifyCode</t>
   </si>
   <si>
     <t>get</t>
@@ -92,13 +111,16 @@
     <t>pass</t>
   </si>
   <si>
+    <t>07-0002</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>错误手机号</t>
-  </si>
-  <si>
-    <t>/api/v1/user/screenUserRegister</t>
+    <t>注册-错误手机号</t>
+  </si>
+  <si>
+    <t>https://trest.yishengyue.cn/api/v1/user/screenUserRegister</t>
   </si>
   <si>
     <t>post</t>
@@ -114,6 +136,18 @@
   </si>
   <si>
     <t>注册接口已变更</t>
+  </si>
+  <si>
+    <t>07-0003</t>
+  </si>
+  <si>
+    <t>注册-错误验证码注册</t>
+  </si>
+  <si>
+    <t>{"mobile":"15828022852","verifyCode":"0000"}</t>
+  </si>
+  <si>
+    <t>验证码不正确</t>
   </si>
 </sst>
 </file>
@@ -121,10 +155,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -154,12 +188,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -167,9 +209,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,7 +262,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,58 +271,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,6 +292,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -316,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,15 +541,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,32 +564,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,12 +600,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -615,10 +649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,16 +661,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,116 +682,116 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,8 +801,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
@@ -1119,390 +1154,153 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="A1" sqref="A1:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="8" style="1"/>
-    <col min="2" max="2" width="11.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1"/>
-    <col min="4" max="4" width="13.4444444444444" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="31.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.7777777777778" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="1"/>
-    <col min="9" max="9" width="11.1111111111111" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8" style="1"/>
+    <col min="1" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+    </row>
+    <row r="2" ht="14.4" spans="1:12">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.4" spans="1:15">
-      <c r="A2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6">
-        <v>43931</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="5" t="s">
+    <row r="3" ht="14.4" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="M3" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" ht="14.4" spans="1:13">
+      <c r="A4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.4" spans="1:16">
-      <c r="A3" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="6">
-        <v>43931</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="I4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.4" spans="1:16">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="14.4" spans="1:16">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="14.4" spans="1:15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="14.4" spans="1:16">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="14.4" spans="1:15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="O8" s="5"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="14.4" spans="1:15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="14.4" spans="1:15">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="14.4" spans="1:15">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="14.4" spans="1:15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="14.4" spans="1:15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="14.4" spans="1:15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="O14" s="5"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="14.4" spans="1:15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="O15" s="5"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="14.4" spans="1:16">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="14.4" spans="1:16">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="14.4" spans="1:15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="O18" s="5"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="14.4" spans="1:16">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="14.4" spans="1:16">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="14.4" spans="1:15">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="O21" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://trest.yishengyue.cn"/>
-    <hyperlink ref="F3" r:id="rId1" display="https://trest.yishengyue.cn"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://trest.yishengyue.cn/api/v1/verifycode/getVerifyCode"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://trest.yishengyue.cn/api/v1/user/screenUserRegister"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://trest.yishengyue.cn/api/v1/user/screenUserRegister"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
